--- a/Data/Transitions/19591963Translation.xlsx
+++ b/Data/Transitions/19591963Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="595">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1709,9 +1709,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3812,7 +3809,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>565</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3823,7 +3820,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4406,7 +4403,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4549,7 +4546,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>565</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4923,7 +4920,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5077,7 +5074,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5286,7 +5283,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5396,7 +5393,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5561,7 +5558,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5594,7 +5591,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5616,7 +5613,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5627,7 +5624,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5671,7 +5668,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5792,7 +5789,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6001,7 +5998,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6023,7 +6020,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6034,7 +6031,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6133,7 +6130,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6364,7 +6361,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6760,7 +6757,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7068,7 +7065,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7123,7 +7120,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7145,7 +7142,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7200,7 +7197,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7277,7 +7274,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7497,7 +7494,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7541,7 +7538,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7981,7 +7978,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8003,7 +8000,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8025,7 +8022,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8036,7 +8033,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8080,7 +8077,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="539" spans="1:3">
